--- a/regionseng/12/infrastructure/infrastructure.xlsx
+++ b/regionseng/12/infrastructure/infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -73,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +150,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -249,6 +255,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,19 +565,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="16"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -585,8 +594,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2011</v>
@@ -621,8 +632,14 @@
       <c r="L2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -659,8 +676,14 @@
       <c r="L3" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="8">
+        <v>100</v>
+      </c>
+      <c r="N3" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -697,8 +720,14 @@
       <c r="L4" s="9">
         <v>90.77825389743316</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="M4" s="9">
+        <v>97.488450522766669</v>
+      </c>
+      <c r="N4" s="9">
+        <v>97.596184574673359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -713,8 +742,10 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>2011</v>
@@ -749,8 +780,14 @@
       <c r="L8" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -787,8 +824,14 @@
       <c r="L9" s="10">
         <v>56.024521888246682</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="10">
+        <v>61.451845455225858</v>
+      </c>
+      <c r="N9" s="10">
+        <v>61.55773662425316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -825,8 +868,14 @@
       <c r="L10" s="10">
         <v>22.67304794366224</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="10">
+        <v>17.145943279389471</v>
+      </c>
+      <c r="N10" s="10">
+        <v>15.855534460762902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -863,8 +912,14 @@
       <c r="L11" s="10">
         <v>16.854301831951176</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="10">
+        <v>19.106647010154497</v>
+      </c>
+      <c r="N11" s="10">
+        <v>22.003171411868696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -901,8 +956,14 @@
       <c r="L12" s="10">
         <v>4.2025593041132936</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="10">
+        <v>2.2955642552301727</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.58355750311524324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -939,8 +1000,14 @@
       <c r="L13" s="11">
         <v>0.24556903202661123</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -955,8 +1022,10 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -970,9 +1039,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
